--- a/data/original_data/PF2_1_Parental_leave_systems (1).xlsx
+++ b/data/original_data/PF2_1_Parental_leave_systems (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\01_Ironhack\projects\female-labour\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1AEF4A-8FDD-4A5F-93CA-51A8F1CAA979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7C1AEF4A-8FDD-4A5F-93CA-51A8F1CAA979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5B77E8-0AB5-4D16-8878-0B304A9796B9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="840" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table PF2.1.A" sheetId="11" r:id="rId1"/>
@@ -1187,6 +1187,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1206,18 +1218,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1245,6 +1245,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,15 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10242,8 +10242,8 @@
   </sheetPr>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -10254,92 +10254,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="106" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="106" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
@@ -10347,9 +10347,9 @@
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="24"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -10357,59 +10357,59 @@
     <row r="8" spans="1:11" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="109" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
@@ -11941,125 +11941,125 @@
       <c r="K57" s="31"/>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
     </row>
     <row r="60" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A60" s="105"/>
-      <c r="B60" s="105"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
     </row>
     <row r="61" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A61" s="105"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
     </row>
     <row r="62" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A62" s="105"/>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A63" s="105"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="109"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="105"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-    </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+    </row>
+    <row r="65" spans="1:11" ht="66" customHeight="1">
+      <c r="A65" s="109"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="109" t="s">
+      <c r="A66" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="68" spans="1:11">
@@ -12075,11 +12075,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:K4"/>
     <mergeCell ref="A58:K65"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="A66:K66"/>
@@ -12094,6 +12089,11 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -12114,8 +12114,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H34" zoomScale="55" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -12126,92 +12126,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="106" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="106" t="s">
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1">
       <c r="A7" s="1"/>
@@ -12219,9 +12219,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -12229,59 +12229,59 @@
     <row r="8" spans="1:11" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="109" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
@@ -13813,141 +13813,147 @@
       <c r="K57" s="31"/>
     </row>
     <row r="58" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
     </row>
     <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
     </row>
     <row r="60" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A60" s="105"/>
-      <c r="B60" s="105"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="109"/>
+      <c r="K60" s="109"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A61" s="105"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A62" s="105"/>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="109"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="109"/>
+      <c r="K62" s="109"/>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A63" s="105"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="109"/>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A64" s="105"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-    </row>
-    <row r="65" spans="1:11" ht="11" customHeight="1">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+    </row>
+    <row r="65" spans="1:11" ht="50" customHeight="1">
+      <c r="A65" s="109"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="109"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="113"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A58:K65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:K4"/>
     <mergeCell ref="C6:E6"/>
@@ -13962,12 +13968,6 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A58:K65"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -17954,10 +17954,10 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="42"/>
-      <c r="S5" s="125" t="s">
+      <c r="S5" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="125"/>
+      <c r="T5" s="128"/>
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:22" ht="32.25" customHeight="1">
@@ -17982,13 +17982,13 @@
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="128" t="s">
+      <c r="S6" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="126" t="s">
+      <c r="T6" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="130" t="s">
+      <c r="U6" s="125" t="s">
         <v>59</v>
       </c>
     </row>
@@ -18011,9 +18011,9 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="130"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="125"/>
     </row>
     <row r="8" spans="1:22" ht="13.5" customHeight="1">
       <c r="A8" s="22"/>
@@ -18034,9 +18034,9 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="46"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="131"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="126"/>
     </row>
     <row r="9" spans="1:22" ht="9" customHeight="1">
       <c r="A9" s="22"/>
@@ -19795,19 +19795,19 @@
     </row>
     <row r="56" spans="1:22" ht="12.75" customHeight="1">
       <c r="A56" s="22"/>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="132"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
       <c r="O56" s="22"/>
@@ -19820,19 +19820,19 @@
     </row>
     <row r="57" spans="1:22" ht="12.75" customHeight="1">
       <c r="A57" s="22"/>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
       <c r="M57" s="54"/>
       <c r="N57" s="54"/>
       <c r="O57" s="22"/>
@@ -19845,19 +19845,19 @@
     </row>
     <row r="58" spans="1:22" ht="12.75" customHeight="1">
       <c r="A58" s="22"/>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
       <c r="O58" s="22"/>
@@ -20003,11 +20003,6 @@
     <sortCondition descending="1" ref="V9:V53"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="B54:L55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B58:L58"/>
     <mergeCell ref="B59:L59"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="T6:T8"/>
@@ -20016,6 +20011,11 @@
     <mergeCell ref="B3:N4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="I6:M6"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="B54:L55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B58:L58"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -20145,10 +20145,10 @@
       <c r="L4" s="104"/>
       <c r="M4" s="104"/>
       <c r="N4" s="22"/>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="125"/>
+      <c r="P4" s="128"/>
       <c r="Q4" s="42"/>
       <c r="R4" s="73"/>
       <c r="S4" s="73"/>
@@ -20170,13 +20170,13 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="126" t="s">
+      <c r="O5" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="126" t="s">
+      <c r="P5" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="126" t="s">
+      <c r="Q5" s="129" t="s">
         <v>85</v>
       </c>
     </row>
@@ -20192,9 +20192,9 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="N6" s="79"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
       <c r="R6" s="75"/>
       <c r="S6" s="75"/>
       <c r="T6" s="75"/>
@@ -20212,9 +20212,9 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="N7" s="71"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="75"/>
       <c r="S7" s="75"/>
       <c r="T7" s="75"/>
@@ -22354,20 +22354,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>OECDListFormCollapsible</Display>
-  <Edit>OECDListFormCollapsible</Edit>
-  <New>OECDListFormCollapsible</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <CtFieldPriority xmlns="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/" xmlns:i="http://www.w3.org/2001/XMLSchema-instance">
   <PriorityFields xmlns:a="http://schemas.microsoft.com/2003/10/Serialization/Arrays">
@@ -22379,11 +22369,191 @@
 </CtFieldPriority>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>OECDListFormCollapsible</Display>
+  <Edit>OECDListFormCollapsible</Edit>
+  <New>OECDListFormCollapsible</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <eShareHorizProjTaxHTField0 xmlns="c5805097-db0a-42f9-a837-be9035f1f571" xsi:nil="true"/>
+    <OECDProjectMembers xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
+      <UserInfo>
+        <DisplayName>QUEISSER Monika, ELS</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LAGORCE Natalie, STI/DCES/CCP</DisplayName>
+        <AccountId>232</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PEREZ Fatima, ELS/SPD</DisplayName>
+        <AccountId>1498</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>THEVENON Olivier, WISE/CWB</DisplayName>
+        <AccountId>291</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FREY Valerie, ELS/SPD</DisplayName>
+        <AccountId>142</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SHIN Eunkyung, ELS/SPD</DisplayName>
+        <AccountId>1174</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LADAIQUE Maxime, ELS/SPD</DisplayName>
+        <AccountId>129</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FRON Pauline, ELS/SPD</DisplayName>
+        <AccountId>219</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CLARKE Chris, WISE/CWB</DisplayName>
+        <AccountId>124</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FLUCHTMANN Jonas, ELS/JAI</DisplayName>
+        <AccountId>3581</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>ALBERTONE Baptiste, ELS/SPD</DisplayName>
+        <AccountId>3584</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GARCIA AISA Martina, ELS/SPD</DisplayName>
+        <AccountId>4212</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GUSTAFSSON Maja, EDU/PAI</DisplayName>
+        <AccountId>4468</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LLOYD Alexandre, ELS/SPD</DisplayName>
+        <AccountId>4856</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>COTS-CAPELL Júlia, ELS/SPD</DisplayName>
+        <AccountId>5460</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TAKEUCHI Alicia, ELS/SPD</DisplayName>
+        <AccountId>5624</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>THOMAS Jasmin, ELS/SPD</DisplayName>
+        <AccountId>5643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>OZAKI Takuyo, ELS/SPD</DisplayName>
+        <AccountId>6320</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectMembers>
+    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
+    <OECDMainProject xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">13</OECDMainProject>
+    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">(n/a)</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">3adabb5f-45b7-4a20-bdde-219e8d9477af</TermId>
+        </TermInfo>
+      </Terms>
+    </eSharePWBTaxHTField0>
+    <OECDAllRelatedUsers xmlns="c5805097-db0a-42f9-a837-be9035f1f571">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDAllRelatedUsers>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <OECDCommunityDocumentID xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
+    <OECDProjectManager xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectManager>
+    <OECDTagsCache xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
+    <b8c3c820c0584e889da065b0a99e2c1a xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
+    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDSharingStatus xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
+    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareCommitteeTaxHTField0>
+    <OECDCommunityDocumentURL xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
+    <OECDPinnedBy xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDPinnedBy>
+    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <cc3d610261fc4fa09f62df6074327105 xmlns="c5805097-db0a-42f9-a837-be9035f1f571">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc3d610261fc4fa09f62df6074327105>
+    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
+    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareCountryTaxHTField0>
+    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareTopicTaxHTField0>
+    <k87588ac03a94edb9fcc4f2494cfdd51 xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ELS/SPD</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e85e649-01ae-435c-b5a2-39c5f49851ef</TermId>
+        </TermInfo>
+      </Terms>
+    </k87588ac03a94edb9fcc4f2494cfdd51>
+    <OECDProjectLookup xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">145</OECDProjectLookup>
+    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareKeywordsTaxHTField0>
+    <OECDExpirationDate xmlns="c5805097-db0a-42f9-a837-be9035f1f571" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
+      <Value>49</Value>
+      <Value>6</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Working Document" ma:contentTypeID="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE5299500A4858B360C6A491AA753F8BCA47AA9100033AB0B45A31F2B489F9B80276A6B0922" ma:contentTypeVersion="74" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="de157740fd862b6abd820d5c04ea5649">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xmlns:ns2="c5805097-db0a-42f9-a837-be9035f1f571" xmlns:ns3="22a5b7d0-1699-458f-b8e2-4d8247229549" xmlns:ns5="c9f238dd-bb73-4aef-a7a5-d644ad823e52" xmlns:ns6="ca82dde9-3436-4d3d-bddd-d31447390034" xmlns:ns7="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="edf1dd90dc3ba4bb77a5714cf99b2f30" ns1:_="" ns2:_="" ns3:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
@@ -22814,193 +22984,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <eShareHorizProjTaxHTField0 xmlns="c5805097-db0a-42f9-a837-be9035f1f571" xsi:nil="true"/>
-    <OECDProjectMembers xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
-      <UserInfo>
-        <DisplayName>QUEISSER Monika, ELS</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LAGORCE Natalie, STI/DCES/CCP</DisplayName>
-        <AccountId>232</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PEREZ Fatima, ELS/SPD</DisplayName>
-        <AccountId>1498</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>THEVENON Olivier, WISE/CWB</DisplayName>
-        <AccountId>291</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FREY Valerie, ELS/SPD</DisplayName>
-        <AccountId>142</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SHIN Eunkyung, ELS/SPD</DisplayName>
-        <AccountId>1174</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LADAIQUE Maxime, ELS/SPD</DisplayName>
-        <AccountId>129</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FRON Pauline, ELS/SPD</DisplayName>
-        <AccountId>219</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CLARKE Chris, WISE/CWB</DisplayName>
-        <AccountId>124</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FLUCHTMANN Jonas, ELS/JAI</DisplayName>
-        <AccountId>3581</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>ALBERTONE Baptiste, ELS/SPD</DisplayName>
-        <AccountId>3584</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GARCIA AISA Martina, ELS/SPD</DisplayName>
-        <AccountId>4212</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GUSTAFSSON Maja, EDU/PAI</DisplayName>
-        <AccountId>4468</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LLOYD Alexandre, ELS/SPD</DisplayName>
-        <AccountId>4856</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>COTS-CAPELL Júlia, ELS/SPD</DisplayName>
-        <AccountId>5460</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TAKEUCHI Alicia, ELS/SPD</DisplayName>
-        <AccountId>5624</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>THOMAS Jasmin, ELS/SPD</DisplayName>
-        <AccountId>5643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>OZAKI Takuyo, ELS/SPD</DisplayName>
-        <AccountId>6320</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectMembers>
-    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
-    <OECDMainProject xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">13</OECDMainProject>
-    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">(n/a)</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">3adabb5f-45b7-4a20-bdde-219e8d9477af</TermId>
-        </TermInfo>
-      </Terms>
-    </eSharePWBTaxHTField0>
-    <OECDAllRelatedUsers xmlns="c5805097-db0a-42f9-a837-be9035f1f571">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDAllRelatedUsers>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <OECDCommunityDocumentID xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
-    <OECDProjectManager xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectManager>
-    <OECDTagsCache xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
-    <b8c3c820c0584e889da065b0a99e2c1a xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
-    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDSharingStatus xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
-    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareCommitteeTaxHTField0>
-    <OECDCommunityDocumentURL xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549" xsi:nil="true"/>
-    <OECDPinnedBy xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDPinnedBy>
-    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <cc3d610261fc4fa09f62df6074327105 xmlns="c5805097-db0a-42f9-a837-be9035f1f571">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc3d610261fc4fa09f62df6074327105>
-    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
-    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareCountryTaxHTField0>
-    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareTopicTaxHTField0>
-    <k87588ac03a94edb9fcc4f2494cfdd51 xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ELS/SPD</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e85e649-01ae-435c-b5a2-39c5f49851ef</TermId>
-        </TermInfo>
-      </Terms>
-    </k87588ac03a94edb9fcc4f2494cfdd51>
-    <OECDProjectLookup xmlns="22a5b7d0-1699-458f-b8e2-4d8247229549">145</OECDProjectLookup>
-    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareKeywordsTaxHTField0>
-    <OECDExpirationDate xmlns="c5805097-db0a-42f9-a837-be9035f1f571" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
-      <Value>49</Value>
-      <Value>6</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02971C83-346A-4E43-BDA5-665DA3E3A927}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A5D1F6F-FA95-41C0-8CC0-4797CFCA3AB9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39AB1B6-0B44-4935-9FC3-B6C42F18728A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4641E19D-DA11-4EFA-B03E-D75F76D7AA1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/"/>
@@ -23009,15 +23001,44 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39AB1B6-0B44-4935-9FC3-B6C42F18728A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A5D1F6F-FA95-41C0-8CC0-4797CFCA3AB9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02971C83-346A-4E43-BDA5-665DA3E3A927}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C720A18-9B21-445E-8617-4CB3586C803F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c5805097-db0a-42f9-a837-be9035f1f571"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22a5b7d0-1699-458f-b8e2-4d8247229549"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
+    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B88A3BB8-176E-4E3E-87DE-2E69D58BFE57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23038,25 +23059,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C720A18-9B21-445E-8617-4CB3586C803F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c5805097-db0a-42f9-a837-be9035f1f571"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22a5b7d0-1699-458f-b8e2-4d8247229549"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
-    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>